--- a/week-5/Regular Expression and Text Proccessing/plantbook.xlsx
+++ b/week-5/Regular Expression and Text Proccessing/plantbook.xlsx
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>plant, combo</t>
+          <t>combo, plant</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">

--- a/week-5/Regular Expression and Text Proccessing/plantbook.xlsx
+++ b/week-5/Regular Expression and Text Proccessing/plantbook.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sansevierias" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sansevierias" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +463,62 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Listing Types</t>
+          <t>Listing Tags</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>Product Url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>name4</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name5</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name6</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>name7</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name8</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>name9</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>name10</t>
         </is>
       </c>
     </row>
@@ -460,16 +530,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D2" t="n">
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,6 +547,36 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Boncel Small Size</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Kirkii Silver Blue</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Silver Steel</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
         </is>
       </c>
     </row>
@@ -490,16 +588,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D3" t="n">
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,6 +605,36 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Coppertone</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fernwood</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gracilis Large</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Silver Princess</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Silver Siam</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Trifaciata Robusta</t>
         </is>
       </c>
     </row>
@@ -520,16 +646,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D4" t="n">
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,6 +663,36 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cylindrica</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gracilis</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Motomo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Silver Nymph</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Tiger</t>
         </is>
       </c>
     </row>
@@ -550,16 +704,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D5" t="n">
+        <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -569,6 +721,36 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Coppertone</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fischeri Singularis</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi Large</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Kirkii Silver Blue</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Midnight Fountain</t>
         </is>
       </c>
     </row>
@@ -580,16 +762,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D6" t="n">
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,6 +779,31 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Coppertone</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fernwood</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Kirkii Silver Blue</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Patens</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Whalefin</t>
         </is>
       </c>
     </row>
@@ -610,16 +815,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D7" t="n">
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,6 +832,36 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cylindrica</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lady Charm Pup</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Parva</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
         </is>
       </c>
     </row>
@@ -640,16 +873,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D8" t="n">
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -659,6 +890,36 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Crocodile Rock</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gracilis</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Parva</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Silver Nymph</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Silver Steel</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
         </is>
       </c>
     </row>
@@ -670,16 +931,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D9" t="n">
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -689,6 +948,36 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cylindrica</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gracilis</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Kirkii Silver Blue</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Parva</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
         </is>
       </c>
     </row>
@@ -700,16 +989,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -719,6 +1006,11 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Silver Princess</t>
         </is>
       </c>
     </row>
@@ -730,16 +1022,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D11" t="n">
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -749,6 +1039,36 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Motomo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Silver Nymph</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Silver Steel</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Tiger</t>
         </is>
       </c>
     </row>
@@ -760,16 +1080,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D12" t="n">
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -779,6 +1097,21 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aff Marsha</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dancing Lady</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Hahnii Gaster</t>
         </is>
       </c>
     </row>
@@ -790,16 +1123,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
@@ -807,6 +1138,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hybrid Tower</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -816,16 +1152,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D14" t="n">
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -835,6 +1169,26 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Boncel Yellow Variegated</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Francisii White Variegated</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Masoniana Yellow Variegated</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sulcata Yellow Variegated</t>
         </is>
       </c>
     </row>
@@ -846,16 +1200,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D15" t="n">
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -865,6 +1217,56 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Andaman</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cleopatra</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Lobel Kenya</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Midnight Fountain</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Nalika</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pagoda</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Silver Crown</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Sindoro</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Spoon Leaf</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Tower</t>
         </is>
       </c>
     </row>
@@ -876,16 +1278,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -895,6 +1295,11 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Masoniana</t>
         </is>
       </c>
     </row>
@@ -906,16 +1311,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -925,6 +1328,11 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Gracilis</t>
         </is>
       </c>
     </row>
@@ -936,16 +1344,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D18" t="n">
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -955,6 +1361,26 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cleopatra</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Francisii White Variegated</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Sansevieria Pagoda Pup</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Silver Boncel</t>
         </is>
       </c>
     </row>
@@ -966,16 +1392,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
@@ -983,6 +1407,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -992,16 +1421,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1011,6 +1438,16 @@
       <c r="F20" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Silver Siam</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Whitney</t>
         </is>
       </c>
     </row>
@@ -1022,16 +1459,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D21" t="n">
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1041,6 +1476,36 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Crocodile Rock</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gracilis</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Lady Charm</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Silver Nymph</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Silver Steel</t>
         </is>
       </c>
     </row>
@@ -1052,16 +1517,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1071,6 +1534,11 @@
       <c r="F22" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Masoniana</t>
         </is>
       </c>
     </row>
@@ -1082,16 +1550,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
@@ -1099,6 +1565,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Trifaciata Futura Gold</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1108,16 +1579,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D24" t="n">
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1127,6 +1596,26 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Arborescens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bagamoyensis</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
     </row>
@@ -1138,16 +1627,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D25" t="n">
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1157,6 +1644,36 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ballyi</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cylindrica</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Hybrid Delhi</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Moto</t>
         </is>
       </c>
     </row>
@@ -1168,16 +1685,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1187,6 +1702,11 @@
       <c r="F26" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Silver Siam</t>
         </is>
       </c>
     </row>
@@ -1198,16 +1718,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1217,6 +1735,11 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Masoniana</t>
         </is>
       </c>
     </row>
@@ -1228,16 +1751,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1245,6 +1766,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1254,16 +1780,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rs. 399.00</t>
+          <t>399.00</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D29" t="n">
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1273,6 +1797,21 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mini Ballyi</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mini Boncel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Pinguicula</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1823,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
@@ -1301,6 +1838,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hu-Chang</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1310,16 +1852,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1329,6 +1869,11 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Fernwood</t>
         </is>
       </c>
     </row>
@@ -1340,16 +1885,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D32" t="n">
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1359,6 +1902,21 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Francisii Green</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Francisii White Variegated</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Francisii Yellow Variegated</t>
         </is>
       </c>
     </row>
@@ -1370,16 +1928,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1389,6 +1945,11 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Crocodile Rock</t>
         </is>
       </c>
     </row>
@@ -1400,16 +1961,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rs. 599.00</t>
+          <t>599.00</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D34" t="n">
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
@@ -1417,6 +1976,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brazillian Moonshine </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1426,16 +1990,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>550.00</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D35" t="n">
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1445,6 +2007,21 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Baicularis</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Canaliculata</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Fischeri</t>
         </is>
       </c>
     </row>
@@ -1456,16 +2033,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>650.00</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D36" t="n">
+        <v>5</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1475,6 +2050,31 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Moonshine</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Superba</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Zeylanica</t>
         </is>
       </c>
     </row>
@@ -1486,16 +2086,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
@@ -1503,6 +2101,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Iceman</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1512,16 +2115,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
@@ -1529,6 +2130,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Kirkii Silver Blue</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1538,16 +2144,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
@@ -1555,6 +2159,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hybrid Tower</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1564,16 +2173,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>525.00</t>
         </is>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D40" t="n">
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
@@ -1581,6 +2188,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1590,16 +2202,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D41" t="n">
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1609,6 +2219,41 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Fernwood</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Katana</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Midnight Fountain</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Silver Steel</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Sulcata</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Uganda Black</t>
         </is>
       </c>
     </row>
@@ -1620,16 +2265,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
@@ -1637,6 +2280,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Masoniana</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1646,16 +2294,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
@@ -1663,6 +2309,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Silver Boncel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1672,16 +2323,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1691,6 +2340,11 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Trifaciata Robusta</t>
         </is>
       </c>
     </row>
@@ -1702,16 +2356,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
@@ -1719,6 +2371,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hybrid Pagoda</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1728,16 +2385,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
@@ -1745,6 +2400,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sulcata Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1754,16 +2414,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D47" t="n">
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1773,6 +2431,26 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fern Wood</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Fischeri</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Pearsonii</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Sulcata Var</t>
         </is>
       </c>
     </row>
@@ -1784,16 +2462,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rs. 1,200.00</t>
+          <t>1200.00</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D48" t="n">
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1803,6 +2479,21 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Black Gold Compacta</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Futura Gold</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Lake Sibaya</t>
         </is>
       </c>
     </row>
@@ -1814,16 +2505,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1833,6 +2522,11 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Silver Nymph</t>
         </is>
       </c>
     </row>
@@ -1844,16 +2538,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D50" t="n">
+        <v>5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1863,6 +2555,31 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Black Jade</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Golden Hahnii</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Jade Marginata</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Night Owl</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Twisted Sisters</t>
         </is>
       </c>
     </row>
@@ -1874,25 +2591,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D51" t="n">
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Nalika</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
         </is>
       </c>
     </row>
@@ -1904,16 +2629,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Rs. 5,500.00</t>
+          <t>5500.00</t>
         </is>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
@@ -1921,6 +2644,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pinguicula Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1930,16 +2658,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
@@ -1947,6 +2673,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lavranos</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1956,16 +2687,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D54" t="n">
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
@@ -1973,6 +2702,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Francisii White Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1982,16 +2716,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>550.00</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D55" t="n">
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2001,6 +2733,11 @@
       <c r="F55" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Twister</t>
         </is>
       </c>
     </row>
@@ -2012,16 +2749,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
@@ -2029,6 +2764,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Boncel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2038,16 +2778,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>275.00</t>
         </is>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D57" t="n">
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
@@ -2055,6 +2793,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Subspicata</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2064,25 +2807,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D58" t="n">
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Gold Dust</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hi Color</t>
         </is>
       </c>
     </row>
@@ -2094,26 +2845,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rs. 850.00
-Rs. 1,175.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D59" t="n">
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Phanphet</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Ravana</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Star Dust</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Tower</t>
         </is>
       </c>
     </row>
@@ -2125,16 +2893,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rs. 775.00</t>
+          <t>775.00</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D60" t="n">
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -2142,6 +2908,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Violet</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2151,16 +2922,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D61" t="n">
+        <v>7</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2170,6 +2939,41 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Fighter</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Lobel Kenya</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Nalika</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Pagoda</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sindoro</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Sweet Celery</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Tower</t>
         </is>
       </c>
     </row>
@@ -2181,25 +2985,43 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D62" t="n">
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Fischeri</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Hawaiian Star</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Katana</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Patens</t>
         </is>
       </c>
     </row>
@@ -2211,16 +3033,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rs. 249.00</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D63" t="n">
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2230,6 +3050,16 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Ballyi</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mini Ballyi</t>
         </is>
       </c>
     </row>
@@ -2241,16 +3071,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rs. 3,000.00</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D64" t="n">
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -2258,6 +3086,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Sp Somalia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2267,16 +3100,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rs. 8,000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D65" t="n">
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
@@ -2284,6 +3115,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rorida</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2293,16 +3129,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D66" t="n">
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2312,6 +3146,11 @@
       <c r="F66" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Blue Leaf Variegated</t>
         </is>
       </c>
     </row>
@@ -2323,16 +3162,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>1150.00</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D67" t="n">
+        <v>1</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
@@ -2340,6 +3177,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Trifaciata Aslaam</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2349,16 +3191,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>1100.00</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D68" t="n">
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
@@ -2366,6 +3206,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Oil Platic</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2375,16 +3220,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D69" t="n">
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
@@ -2392,6 +3235,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Boncel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2401,16 +3249,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D70" t="n">
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
@@ -2418,6 +3264,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Trifaciata Laurentii</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2427,16 +3278,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D71" t="n">
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
@@ -2444,6 +3293,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Ebracteata</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2453,16 +3307,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D72" t="n">
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
@@ -2470,6 +3322,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Joboa Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2479,16 +3336,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D73" t="n">
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2498,6 +3353,11 @@
       <c r="F73" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Whitney</t>
         </is>
       </c>
     </row>
@@ -2509,16 +3369,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>1650.00</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D74" t="n">
+        <v>3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2528,6 +3386,21 @@
       <c r="F74" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Benthieng</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Chao Pharya</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Nakhon Luang</t>
         </is>
       </c>
     </row>
@@ -2539,16 +3412,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D75" t="n">
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
@@ -2556,6 +3427,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Chao Pharya</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2565,16 +3441,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D76" t="n">
+        <v>4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2584,6 +3458,26 @@
       <c r="F76" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Prabhu</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Prima</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Tower</t>
         </is>
       </c>
     </row>
@@ -2595,16 +3489,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D77" t="n">
+        <v>4</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2614,6 +3506,26 @@
       <c r="F77" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Fern Wood</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Fischeri</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Pearsonii</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Sulcata Var</t>
         </is>
       </c>
     </row>
@@ -2625,16 +3537,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rs. 1,550.00</t>
+          <t>1550.00</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D78" t="n">
+        <v>5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2644,6 +3554,31 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Fernwood Var</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Florida H</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Stella Var</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Sulcata Var</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Uganda Black Var</t>
         </is>
       </c>
     </row>
@@ -2655,16 +3590,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>525.00</t>
         </is>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D79" t="n">
+        <v>6</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2674,6 +3607,36 @@
       <c r="F79" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Boncel</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Coppertone</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Cylindrica</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Fernwood</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Uganda Black</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Whalefine Green</t>
         </is>
       </c>
     </row>
@@ -2685,16 +3648,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rs. 2,500.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D80" t="n">
+        <v>5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2704,6 +3665,31 @@
       <c r="F80" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Alslaam</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Black Sword Aka Green Arrow</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Moonshine Variegated</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Mutant Moonshine</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Nelsonni Banded</t>
         </is>
       </c>
     </row>
@@ -2715,26 +3701,58 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00
-Rs. 1,850.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="D81" t="n">
+        <v>7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Boncel Var</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Fighter</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Marsha Anjani</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Nilin</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Platinum Cross</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Robo</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Silver Boncel</t>
         </is>
       </c>
     </row>
@@ -2746,16 +3764,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D82" t="n">
+        <v>5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2765,6 +3781,31 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Aslaam</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Green Arrow</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Moonshine Var</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
     </row>
@@ -2776,16 +3817,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rs. 475.00</t>
+          <t>475.00</t>
         </is>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D83" t="n">
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
@@ -2793,6 +3832,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Black Gold Compacta</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2802,25 +3846,43 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rs. 675.00</t>
+          <t>675.00</t>
         </is>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D84" t="n">
+        <v>4</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Boncel Ming Manee</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Including Shipping</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Silver Boncel</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Sindoro</t>
         </is>
       </c>
     </row>
@@ -2832,16 +3894,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D85" t="n">
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2851,6 +3911,11 @@
       <c r="F85" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Masoniana</t>
         </is>
       </c>
     </row>
@@ -2862,16 +3927,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rs. 1,300.00</t>
+          <t>1300.00</t>
         </is>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D86" t="n">
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
@@ -2879,6 +3942,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rorida</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2888,16 +3956,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rs. 2,750.00</t>
+          <t>2750.00</t>
         </is>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D87" t="n">
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
@@ -2905,6 +3971,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Stardust</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2914,16 +3985,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D88" t="n">
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
@@ -2931,6 +4000,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Ballyi</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2940,16 +4014,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>275.00</t>
         </is>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D89" t="n">
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
@@ -2957,6 +4029,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2966,16 +4043,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>275.00</t>
         </is>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D90" t="n">
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
@@ -2983,6 +4058,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Moose</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2992,16 +4072,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rs. 800.00</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D91" t="n">
+        <v>1</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
@@ -3009,6 +4087,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Boncel Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3018,16 +4101,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>650.00</t>
         </is>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D92" t="n">
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
@@ -3035,6 +4116,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Boncel Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3044,16 +4130,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D93" t="n">
+        <v>1</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
@@ -3061,6 +4145,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Cleopatra</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3070,16 +4159,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D94" t="n">
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3089,6 +4176,11 @@
       <c r="F94" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Moto</t>
         </is>
       </c>
     </row>
@@ -3100,16 +4192,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D95" t="n">
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
@@ -3117,6 +4207,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Samurai Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3126,16 +4221,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D96" t="n">
+        <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3145,6 +4238,11 @@
       <c r="F96" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Blue Leaf Variegated</t>
         </is>
       </c>
     </row>
@@ -3156,16 +4254,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D97" t="n">
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3175,6 +4271,11 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Blue Leaf Variegated</t>
         </is>
       </c>
     </row>
@@ -3186,16 +4287,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rs. 500.00</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D98" t="n">
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
@@ -3203,6 +4302,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Nilin</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3212,16 +4316,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D99" t="n">
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
@@ -3229,6 +4331,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Lobal Kenya</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3238,16 +4345,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D100" t="n">
+        <v>6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3257,6 +4362,36 @@
       <c r="F100" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kitonga</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Lady Charm</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Parbhu</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Sindoro</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
@@ -3268,16 +4403,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D101" t="n">
+        <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3287,6 +4420,11 @@
       <c r="F101" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Whitney</t>
         </is>
       </c>
     </row>
@@ -3298,16 +4436,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>1150.00</t>
         </is>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D102" t="n">
+        <v>5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3317,6 +4453,31 @@
       <c r="F102" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Adventus</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bao Dam</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Black Ants</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Black Mlandi</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
         </is>
       </c>
     </row>
@@ -3328,16 +4489,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="C103" t="b">
         <v>1</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D103" t="n">
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
@@ -3345,6 +4504,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordova Variegated </t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3354,17 +4518,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00
-Rs. 1,599.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D104" t="n">
+        <v>1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3374,6 +4535,11 @@
       <c r="F104" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Chao Pharya</t>
         </is>
       </c>
     </row>
@@ -3385,16 +4551,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rs. 2,299.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D105" t="n">
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3404,6 +4568,11 @@
       <c r="F105" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Cinta</t>
         </is>
       </c>
     </row>
@@ -3415,17 +4584,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00
-Rs. 1,650.00</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D106" t="n">
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3435,6 +4601,11 @@
       <c r="F106" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Chao</t>
         </is>
       </c>
     </row>
@@ -3446,16 +4617,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D107" t="n">
+        <v>1</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
@@ -3463,6 +4632,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Flamingo -  Height</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3472,16 +4646,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rs. 1,199.00</t>
+          <t>1199.00</t>
         </is>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D108" t="n">
+        <v>3</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3491,6 +4663,21 @@
       <c r="F108" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Black Gold Compacta</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Green Arrow</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
     </row>
@@ -3502,16 +4689,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D109" t="n">
+        <v>4</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3521,6 +4706,26 @@
       <c r="F109" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Phanphet</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Ravana</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Sengukuni</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Star Dust</t>
         </is>
       </c>
     </row>
@@ -3532,16 +4737,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="C110" t="b">
         <v>1</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D110" t="n">
+        <v>5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3551,6 +4754,31 @@
       <c r="F110" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Fernwood Var</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Florida H</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Stella Var</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Sulcata Var</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Uganda Black Var</t>
         </is>
       </c>
     </row>
@@ -3562,16 +4790,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Rs. 2,999.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D111" t="n">
+        <v>8</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3581,6 +4807,46 @@
       <c r="F111" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Aswathama</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Prabhu</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Rahwana Ex Indonesia And That</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Ravana Ex Thailand</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Sengkuni Or Shakuni Of Mahabharatha</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Sinta Named On Goddness Seeta Of Ramayana</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Sri Rama</t>
         </is>
       </c>
     </row>
@@ -3592,16 +4858,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D112" t="n">
+        <v>6</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3611,6 +4875,36 @@
       <c r="F112" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Erytherae</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Fischeri</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Midnight Fountain</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Patens</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Sulcata</t>
         </is>
       </c>
     </row>
@@ -3622,16 +4916,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C113" t="b">
         <v>0</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D113" t="n">
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
@@ -3639,6 +4931,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Craigii</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3648,16 +4945,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D114" t="n">
+        <v>5</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3667,6 +4962,31 @@
       <c r="F114" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Adventus</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bao Dam</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Black Ants</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Black Mlandi</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
         </is>
       </c>
     </row>
@@ -3678,25 +4998,43 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D115" t="n">
+        <v>4</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Platinum Cross</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Robo</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Sawasdee</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Sindoro</t>
         </is>
       </c>
     </row>
@@ -3708,16 +5046,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D116" t="n">
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
@@ -3725,6 +5061,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Manjha</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3734,16 +5075,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C117" t="b">
         <v>1</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D117" t="n">
+        <v>1</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
@@ -3751,6 +5090,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Lakesibaya</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3760,16 +5104,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Rs. 1,799.00</t>
+          <t>1799.00</t>
         </is>
       </c>
       <c r="C118" t="b">
         <v>0</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D118" t="n">
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
@@ -3777,6 +5119,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Sansevieria Juleha</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3786,16 +5133,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="C119" t="b">
         <v>0</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D119" t="n">
+        <v>1</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
@@ -3803,6 +5148,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Moonshine Var Pup</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3812,16 +5162,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="C120" t="b">
         <v>0</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D120" t="n">
+        <v>1</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
@@ -3829,6 +5177,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant Pup</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3838,25 +5191,43 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>1650.00</t>
         </is>
       </c>
       <c r="C121" t="b">
         <v>0</v>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D121" t="n">
+        <v>4</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Adventus</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Rahwana</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Sheila</t>
         </is>
       </c>
     </row>
@@ -3868,16 +5239,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C122" t="b">
         <v>0</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D122" t="n">
+        <v>4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3887,6 +5256,26 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Bao Dam</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Robo</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Star Gate</t>
         </is>
       </c>
     </row>
@@ -3898,25 +5287,58 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rs. 3,450.00</t>
+          <t>3450.00</t>
         </is>
       </c>
       <c r="C123" t="b">
         <v>0</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D123" t="n">
+        <v>7</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Ashwathama</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Jatayu</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Prabu</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Rahwana</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Ravana</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Sengkuni</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Sinta</t>
         </is>
       </c>
     </row>
@@ -3928,16 +5350,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C124" t="b">
         <v>1</v>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D124" t="n">
+        <v>1</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
@@ -3945,6 +5365,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Francissi</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3954,16 +5379,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>1850.00</t>
         </is>
       </c>
       <c r="C125" t="b">
         <v>0</v>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D125" t="n">
+        <v>5</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3973,6 +5396,31 @@
       <c r="F125" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Black Ants</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Black Gold Compacta</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Green Arrow</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
     </row>
@@ -3984,16 +5432,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>1650.00</t>
         </is>
       </c>
       <c r="C126" t="b">
         <v>0</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D126" t="n">
+        <v>1</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
@@ -4001,6 +5447,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4010,16 +5461,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Rs. 1,950.00</t>
+          <t>1950.00</t>
         </is>
       </c>
       <c r="C127" t="b">
         <v>0</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D127" t="n">
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
@@ -4027,6 +5476,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Sansevieria Green Mermaid Pup</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4036,16 +5490,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rs. 1,350.00</t>
+          <t>1350.00</t>
         </is>
       </c>
       <c r="C128" t="b">
         <v>0</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D128" t="n">
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
@@ -4053,6 +5505,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Irish</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4062,16 +5519,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C129" t="b">
         <v>0</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D129" t="n">
+        <v>1</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
@@ -4079,6 +5534,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>S. Dragon Scales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4088,16 +5548,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="C130" t="b">
         <v>0</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D130" t="n">
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
@@ -4105,6 +5563,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Fighter</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4114,16 +5577,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Rs. 799.00</t>
+          <t>799.00</t>
         </is>
       </c>
       <c r="C131" t="b">
         <v>0</v>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D131" t="n">
+        <v>1</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
@@ -4131,6 +5592,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4140,16 +5606,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C132" t="b">
         <v>0</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D132" t="n">
+        <v>1</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
@@ -4157,6 +5621,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Rahwana</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4166,16 +5635,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C133" t="b">
         <v>0</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D133" t="n">
+        <v>1</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
@@ -4183,6 +5650,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Kesya</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4192,16 +5664,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="C134" t="b">
         <v>0</v>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D134" t="n">
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
@@ -4209,6 +5679,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Argopuro</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4218,16 +5693,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="C135" t="b">
         <v>0</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D135" t="n">
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
@@ -4235,6 +5708,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Bella</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4244,25 +5722,33 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C136" t="b">
         <v>0</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D136" t="n">
+        <v>2</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>combo, plant</t>
+          <t>plant, combo</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Black Ants</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Silver Boncelincluding Shipping</t>
         </is>
       </c>
     </row>
@@ -4274,16 +5760,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>1100.00</t>
         </is>
       </c>
       <c r="C137" t="b">
         <v>0</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D137" t="n">
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
@@ -4291,6 +5775,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4300,16 +5789,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>650.00</t>
         </is>
       </c>
       <c r="C138" t="b">
         <v>0</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D138" t="n">
+        <v>1</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
@@ -4317,6 +5804,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Hahnii Gaster</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4326,16 +5818,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C139" t="b">
         <v>0</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D139" t="n">
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
@@ -4343,6 +5833,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Blue Banana</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4352,16 +5847,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C140" t="b">
         <v>0</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D140" t="n">
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
@@ -4369,6 +5862,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Fat Banana</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4378,16 +5876,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="C141" t="b">
         <v>0</v>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D141" t="n">
+        <v>1</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
@@ -4395,6 +5891,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Trifaciata Green Arrow</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4404,16 +5905,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>1100.00</t>
         </is>
       </c>
       <c r="C142" t="b">
         <v>0</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D142" t="n">
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
@@ -4421,6 +5920,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Trifaciata Banded Nelsonii</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4430,16 +5934,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="C143" t="b">
         <v>0</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D143" t="n">
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
@@ -4447,6 +5949,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Hybrid Black Ant</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4456,16 +5963,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D144" t="n">
+        <v>1</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
@@ -4473,6 +5978,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Hybrid Fighter</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4482,16 +5992,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>650.00</t>
         </is>
       </c>
       <c r="C145" t="b">
         <v>0</v>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D145" t="n">
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
@@ -4499,6 +6007,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Pink Cell</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4508,16 +6021,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="C146" t="b">
         <v>0</v>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D146" t="n">
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
@@ -4525,6 +6036,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Hybrid Kasih</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4534,16 +6050,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="C147" t="b">
         <v>0</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D147" t="n">
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
@@ -4551,6 +6065,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Hybrid Kasih</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4560,16 +6079,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C148" t="b">
         <v>0</v>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D148" t="n">
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
@@ -4577,6 +6094,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Hybrid Kasih</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4586,16 +6108,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>1499.00</t>
         </is>
       </c>
       <c r="C149" t="b">
         <v>0</v>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D149" t="n">
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
@@ -4603,6 +6123,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Sunflower</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4612,16 +6137,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="C150" t="b">
         <v>0</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D150" t="n">
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4631,6 +6154,11 @@
       <c r="F150" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Hawaiian Star</t>
         </is>
       </c>
     </row>
@@ -4642,16 +6170,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>1650.00</t>
         </is>
       </c>
       <c r="C151" t="b">
         <v>1</v>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D151" t="n">
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
@@ -4659,6 +6185,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Francisii Yellow Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4668,16 +6199,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="C152" t="b">
         <v>0</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D152" t="n">
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
@@ -4685,6 +6214,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Francisii</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4694,16 +6228,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>650.00</t>
         </is>
       </c>
       <c r="C153" t="b">
         <v>0</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D153" t="n">
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4713,6 +6245,11 @@
       <c r="F153" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Boncel</t>
         </is>
       </c>
     </row>
@@ -4724,16 +6261,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>699.00</t>
         </is>
       </c>
       <c r="C154" t="b">
         <v>0</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D154" t="n">
+        <v>1</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4743,6 +6278,11 @@
       <c r="F154" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Boncel Platinum</t>
         </is>
       </c>
     </row>
@@ -4754,16 +6294,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="C155" t="b">
         <v>0</v>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D155" t="n">
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
@@ -4771,6 +6309,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Manee</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4780,16 +6323,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rs. 5,000.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="C156" t="b">
         <v>0</v>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D156" t="n">
+        <v>1</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
@@ -4797,6 +6338,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Rocker</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4806,16 +6352,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C157" t="b">
         <v>0</v>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D157" t="n">
+        <v>1</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
@@ -4823,6 +6367,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4832,16 +6381,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="C158" t="b">
         <v>0</v>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D158" t="n">
+        <v>1</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
@@ -4849,6 +6396,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Meena</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4858,16 +6410,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C159" t="b">
         <v>0</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D159" t="n">
+        <v>1</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
@@ -4875,6 +6425,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Mini Gold</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4884,16 +6439,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>1850.00</t>
         </is>
       </c>
       <c r="C160" t="b">
         <v>0</v>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D160" t="n">
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
@@ -4901,6 +6454,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Snow Boy</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4910,16 +6468,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Rs. 1,450.00</t>
+          <t>1450.00</t>
         </is>
       </c>
       <c r="C161" t="b">
         <v>0</v>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D161" t="n">
+        <v>1</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
@@ -4927,6 +6483,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Fat Man</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4936,16 +6497,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C162" t="b">
         <v>0</v>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D162" t="n">
+        <v>1</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
@@ -4953,6 +6512,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Ming Manee</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4962,16 +6526,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>1150.00</t>
         </is>
       </c>
       <c r="C163" t="b">
         <v>1</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D163" t="n">
+        <v>1</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
@@ -4979,6 +6541,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Ebracteata Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4988,16 +6555,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="C164" t="b">
         <v>0</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D164" t="n">
+        <v>1</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
@@ -5005,6 +6570,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Hybrid Jatayu</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5014,16 +6584,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="C165" t="b">
         <v>0</v>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D165" t="n">
+        <v>1</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
@@ -5031,6 +6599,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5040,16 +6613,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="C166" t="b">
         <v>1</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D166" t="n">
+        <v>1</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
@@ -5057,6 +6628,11 @@
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Samurai Variegated</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5066,16 +6642,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C167" t="b">
         <v>1</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D167" t="n">
+        <v>1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5085,6 +6659,11 @@
       <c r="F167" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Blue Leaf Variegated</t>
         </is>
       </c>
     </row>
@@ -5096,16 +6675,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="C168" t="b">
         <v>1</v>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D168" t="n">
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5115,6 +6692,11 @@
       <c r="F168" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Blue Leaf Variegated</t>
         </is>
       </c>
     </row>
@@ -5126,21 +6708,24 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="C169" t="b">
         <v>0</v>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D169" t="n">
+        <v>1</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
           <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Nilin</t>
         </is>
       </c>
     </row>
